--- a/data/pca/factorExposure/factorExposure_2015-04-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02331323606831451</v>
+        <v>-0.01086129624225463</v>
       </c>
       <c r="C2">
-        <v>0.02494483766720864</v>
+        <v>0.05158193609547305</v>
       </c>
       <c r="D2">
-        <v>-0.1262488962418589</v>
+        <v>0.1257747365860042</v>
       </c>
       <c r="E2">
-        <v>-0.01358382632712867</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02434336594715221</v>
+      </c>
+      <c r="F2">
+        <v>-0.02429348473987131</v>
+      </c>
+      <c r="G2">
+        <v>0.08888207176348464</v>
+      </c>
+      <c r="H2">
+        <v>-0.1046143324535015</v>
+      </c>
+      <c r="I2">
+        <v>0.08608606263747935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04347488924730129</v>
+        <v>-0.01562319146673245</v>
       </c>
       <c r="C4">
-        <v>0.07058403638552017</v>
+        <v>0.1062066246349923</v>
       </c>
       <c r="D4">
-        <v>-0.09866601467449714</v>
+        <v>0.1276891822647255</v>
       </c>
       <c r="E4">
-        <v>-0.0891816823258726</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01790589270753626</v>
+      </c>
+      <c r="F4">
+        <v>-0.09385533126554842</v>
+      </c>
+      <c r="G4">
+        <v>0.001266030560464038</v>
+      </c>
+      <c r="H4">
+        <v>-0.05423762014979377</v>
+      </c>
+      <c r="I4">
+        <v>-0.06693605634187523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02544325689296483</v>
+        <v>-0.02987140544282554</v>
       </c>
       <c r="C6">
-        <v>0.01205056585326183</v>
+        <v>0.03653160590430998</v>
       </c>
       <c r="D6">
-        <v>-0.1258242583496936</v>
+        <v>0.1219140208315068</v>
       </c>
       <c r="E6">
-        <v>-0.05784856195112088</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.06302011836252186</v>
+      </c>
+      <c r="F6">
+        <v>-0.04469659493549871</v>
+      </c>
+      <c r="G6">
+        <v>-0.02449668267399453</v>
+      </c>
+      <c r="H6">
+        <v>-0.04312787819273996</v>
+      </c>
+      <c r="I6">
+        <v>0.001059152346521814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.001688312880872323</v>
+        <v>-0.005693426538005005</v>
       </c>
       <c r="C7">
-        <v>0.02277840267008093</v>
+        <v>0.03870699669251781</v>
       </c>
       <c r="D7">
-        <v>-0.1076123408142113</v>
+        <v>0.0962293304737394</v>
       </c>
       <c r="E7">
-        <v>-0.01879094084864871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.0488695324836354</v>
+      </c>
+      <c r="F7">
+        <v>-0.004813870471647239</v>
+      </c>
+      <c r="G7">
+        <v>-0.04553577533537541</v>
+      </c>
+      <c r="H7">
+        <v>-0.07893584862863516</v>
+      </c>
+      <c r="I7">
+        <v>-0.04383614028540472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.0002765469530281937</v>
+        <v>0.007525966260196161</v>
       </c>
       <c r="C8">
-        <v>0.0244178359764203</v>
+        <v>0.03471133236498016</v>
       </c>
       <c r="D8">
-        <v>-0.08009104354624999</v>
+        <v>0.0761153632967978</v>
       </c>
       <c r="E8">
-        <v>-0.04062530139595058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03525938544000631</v>
+      </c>
+      <c r="F8">
+        <v>-0.05303274851540447</v>
+      </c>
+      <c r="G8">
+        <v>0.05755817313933113</v>
+      </c>
+      <c r="H8">
+        <v>-0.04001473924390237</v>
+      </c>
+      <c r="I8">
+        <v>-0.01830362346512197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03471753736735773</v>
+        <v>-0.01147750110365491</v>
       </c>
       <c r="C9">
-        <v>0.06027359161185718</v>
+        <v>0.08743165375668217</v>
       </c>
       <c r="D9">
-        <v>-0.1070500649476435</v>
+        <v>0.1100879013739053</v>
       </c>
       <c r="E9">
-        <v>-0.07269058869060786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01584617715098584</v>
+      </c>
+      <c r="F9">
+        <v>-0.06173863155212635</v>
+      </c>
+      <c r="G9">
+        <v>-0.02911212617120526</v>
+      </c>
+      <c r="H9">
+        <v>-0.05856969560438681</v>
+      </c>
+      <c r="I9">
+        <v>-0.03498289387172478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1742882856737528</v>
+        <v>-0.2410075833498493</v>
       </c>
       <c r="C10">
-        <v>-0.1733136540863467</v>
+        <v>-0.08887587563561691</v>
       </c>
       <c r="D10">
-        <v>0.009133075749307981</v>
+        <v>-0.005187606666748622</v>
       </c>
       <c r="E10">
-        <v>-0.05109584444470491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01410812726375039</v>
+      </c>
+      <c r="F10">
+        <v>-0.04902809579637622</v>
+      </c>
+      <c r="G10">
+        <v>0.007434941173016429</v>
+      </c>
+      <c r="H10">
+        <v>0.01309626252074564</v>
+      </c>
+      <c r="I10">
+        <v>0.01491418243976025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01942278266779537</v>
+        <v>-0.009718365642255275</v>
       </c>
       <c r="C11">
-        <v>0.04192711887446245</v>
+        <v>0.05889266536279494</v>
       </c>
       <c r="D11">
-        <v>-0.04174713628633676</v>
+        <v>0.04049962933941553</v>
       </c>
       <c r="E11">
-        <v>0.01532281247128032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02149494490732078</v>
+      </c>
+      <c r="F11">
+        <v>0.01531591279595833</v>
+      </c>
+      <c r="G11">
+        <v>-0.02576462227008901</v>
+      </c>
+      <c r="H11">
+        <v>-0.04247205479819509</v>
+      </c>
+      <c r="I11">
+        <v>-0.03408919942034981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01877785144652165</v>
+        <v>-0.009378638863131027</v>
       </c>
       <c r="C12">
-        <v>0.04179264417378857</v>
+        <v>0.05072040854345176</v>
       </c>
       <c r="D12">
-        <v>-0.05344082841889949</v>
+        <v>0.04444125787170158</v>
       </c>
       <c r="E12">
-        <v>0.005409526772766121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01556665886861545</v>
+      </c>
+      <c r="F12">
+        <v>0.01858384065921422</v>
+      </c>
+      <c r="G12">
+        <v>-0.04717213447614715</v>
+      </c>
+      <c r="H12">
+        <v>-0.05617220565154752</v>
+      </c>
+      <c r="I12">
+        <v>-0.008413302936225879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.005346653839657306</v>
+        <v>0.004775837259254553</v>
       </c>
       <c r="C13">
-        <v>0.02379980827607917</v>
+        <v>0.04942505478864419</v>
       </c>
       <c r="D13">
-        <v>-0.1248174422556962</v>
+        <v>0.1429345075974874</v>
       </c>
       <c r="E13">
-        <v>-0.04883211847240049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03765890349868926</v>
+      </c>
+      <c r="F13">
+        <v>-0.03057898384624026</v>
+      </c>
+      <c r="G13">
+        <v>-0.007171227025007576</v>
+      </c>
+      <c r="H13">
+        <v>-0.07967641240989262</v>
+      </c>
+      <c r="I13">
+        <v>0.04628872620512868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.003910629831736226</v>
+        <v>-0.00260184574099743</v>
       </c>
       <c r="C14">
-        <v>0.0164443737830078</v>
+        <v>0.03238042988970231</v>
       </c>
       <c r="D14">
-        <v>-0.08307908958834628</v>
+        <v>0.09728051566202568</v>
       </c>
       <c r="E14">
-        <v>-0.02067158810271376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05077841848138432</v>
+      </c>
+      <c r="F14">
+        <v>-0.02993935795527941</v>
+      </c>
+      <c r="G14">
+        <v>-0.03114693922456341</v>
+      </c>
+      <c r="H14">
+        <v>-0.1348893577909446</v>
+      </c>
+      <c r="I14">
+        <v>0.002708264657723889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002554996670851872</v>
+        <v>0.00482368470906309</v>
       </c>
       <c r="C15">
-        <v>0.009968458569620531</v>
+        <v>0.02861698542512917</v>
       </c>
       <c r="D15">
-        <v>-0.03531936039987957</v>
+        <v>0.06167648472043911</v>
       </c>
       <c r="E15">
-        <v>0.002338594594994154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01463236770478236</v>
+      </c>
+      <c r="F15">
+        <v>-0.009648887296387746</v>
+      </c>
+      <c r="G15">
+        <v>0.007472059873986235</v>
+      </c>
+      <c r="H15">
+        <v>-0.0503931074125931</v>
+      </c>
+      <c r="I15">
+        <v>-0.01510122592828094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01812863056004631</v>
+        <v>-0.008888818594241829</v>
       </c>
       <c r="C16">
-        <v>0.03771003559539975</v>
+        <v>0.05087721031230154</v>
       </c>
       <c r="D16">
-        <v>-0.04632328084558204</v>
+        <v>0.04172328038453322</v>
       </c>
       <c r="E16">
-        <v>0.005442999921348657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02303782816521001</v>
+      </c>
+      <c r="F16">
+        <v>0.01048562088196147</v>
+      </c>
+      <c r="G16">
+        <v>-0.03499713887420099</v>
+      </c>
+      <c r="H16">
+        <v>-0.03670396794655357</v>
+      </c>
+      <c r="I16">
+        <v>-0.02033336508223589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0003581343258614604</v>
+        <v>0.003043863008709357</v>
       </c>
       <c r="C19">
-        <v>0.0205284337719698</v>
+        <v>0.01631580665500445</v>
       </c>
       <c r="D19">
-        <v>-0.07759897967863839</v>
+        <v>0.05257713062908573</v>
       </c>
       <c r="E19">
-        <v>-0.03016779072720331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.008631899600801783</v>
+      </c>
+      <c r="F19">
+        <v>-0.01003298216871921</v>
+      </c>
+      <c r="G19">
+        <v>-0.004222833477505624</v>
+      </c>
+      <c r="H19">
+        <v>-0.04612661894309217</v>
+      </c>
+      <c r="I19">
+        <v>0.01654045152344621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.003207992363184545</v>
+        <v>-0.003969287769406071</v>
       </c>
       <c r="C20">
-        <v>0.02416930445279677</v>
+        <v>0.04168747931399052</v>
       </c>
       <c r="D20">
-        <v>-0.07267464339069131</v>
+        <v>0.08701191375907724</v>
       </c>
       <c r="E20">
-        <v>-0.03935573641650623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02398013313740866</v>
+      </c>
+      <c r="F20">
+        <v>-0.0256230289737389</v>
+      </c>
+      <c r="G20">
+        <v>-0.02954548572687839</v>
+      </c>
+      <c r="H20">
+        <v>-0.05422981212185192</v>
+      </c>
+      <c r="I20">
+        <v>-0.04179416410483063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.005216393361963303</v>
+        <v>-0.002205326828559187</v>
       </c>
       <c r="C21">
-        <v>0.03001823825892561</v>
+        <v>0.04645169558723148</v>
       </c>
       <c r="D21">
-        <v>-0.1359020564513782</v>
+        <v>0.123897508177856</v>
       </c>
       <c r="E21">
-        <v>-0.08755588628097005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03326993890857037</v>
+      </c>
+      <c r="F21">
+        <v>-0.08716657802233597</v>
+      </c>
+      <c r="G21">
+        <v>-0.03403457037783809</v>
+      </c>
+      <c r="H21">
+        <v>-0.1883657163962507</v>
+      </c>
+      <c r="I21">
+        <v>0.07099988164056197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001585557852216352</v>
+        <v>0.01425131917908576</v>
       </c>
       <c r="C22">
-        <v>0.06879963465413283</v>
+        <v>0.08826589067343471</v>
       </c>
       <c r="D22">
-        <v>-0.3029031347542291</v>
+        <v>0.2706788282339601</v>
       </c>
       <c r="E22">
-        <v>-0.04706426366701755</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06490164126030069</v>
+      </c>
+      <c r="F22">
+        <v>-0.02225711061932518</v>
+      </c>
+      <c r="G22">
+        <v>0.4691259770418301</v>
+      </c>
+      <c r="H22">
+        <v>0.2867735434693663</v>
+      </c>
+      <c r="I22">
+        <v>0.02547912565859849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.001861276429850893</v>
+        <v>0.01109644270965356</v>
       </c>
       <c r="C23">
-        <v>0.06927079995982899</v>
+        <v>0.09004449781871966</v>
       </c>
       <c r="D23">
-        <v>-0.3023726362641233</v>
+        <v>0.2732075263981115</v>
       </c>
       <c r="E23">
-        <v>-0.04724929244757999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05992577077554617</v>
+      </c>
+      <c r="F23">
+        <v>-0.0253505447762106</v>
+      </c>
+      <c r="G23">
+        <v>0.4544293425788997</v>
+      </c>
+      <c r="H23">
+        <v>0.2741288104612258</v>
+      </c>
+      <c r="I23">
+        <v>0.02662315449761541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02389426525538738</v>
+        <v>-0.009442714782769559</v>
       </c>
       <c r="C24">
-        <v>0.05729692706173251</v>
+        <v>0.06739727348104296</v>
       </c>
       <c r="D24">
-        <v>-0.05475816943507016</v>
+        <v>0.04560782645485079</v>
       </c>
       <c r="E24">
-        <v>0.003584849691096237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02932646058424683</v>
+      </c>
+      <c r="F24">
+        <v>0.007669179979253911</v>
+      </c>
+      <c r="G24">
+        <v>-0.02981781338015371</v>
+      </c>
+      <c r="H24">
+        <v>-0.06540949083363576</v>
+      </c>
+      <c r="I24">
+        <v>-0.0276536234716565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02423882344064232</v>
+        <v>-0.01338300852959782</v>
       </c>
       <c r="C25">
-        <v>0.04901024663160171</v>
+        <v>0.06191211432068316</v>
       </c>
       <c r="D25">
-        <v>-0.05318749217723936</v>
+        <v>0.04859661333214219</v>
       </c>
       <c r="E25">
-        <v>-0.003018746123213559</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.0151517959439638</v>
+      </c>
+      <c r="F25">
+        <v>0.00682957563730006</v>
+      </c>
+      <c r="G25">
+        <v>-0.02540189983630738</v>
+      </c>
+      <c r="H25">
+        <v>-0.03058967698506777</v>
+      </c>
+      <c r="I25">
+        <v>-0.01928712997555007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.009618439371586213</v>
+        <v>-0.01681245425793591</v>
       </c>
       <c r="C26">
-        <v>0.01515037565967396</v>
+        <v>0.02958781442139737</v>
       </c>
       <c r="D26">
-        <v>-0.07344043772408251</v>
+        <v>0.06630341158535251</v>
       </c>
       <c r="E26">
-        <v>-0.03010112066372422</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04037570664788938</v>
+      </c>
+      <c r="F26">
+        <v>-0.04246150820073387</v>
+      </c>
+      <c r="G26">
+        <v>-0.02857511044147365</v>
+      </c>
+      <c r="H26">
+        <v>-0.1002968143343572</v>
+      </c>
+      <c r="I26">
+        <v>-0.001288031292205818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2603405650026483</v>
+        <v>-0.3194312732199157</v>
       </c>
       <c r="C28">
-        <v>-0.1953479981159011</v>
+        <v>-0.08518229293758116</v>
       </c>
       <c r="D28">
-        <v>-0.007023780565270152</v>
+        <v>-0.02475403728912327</v>
       </c>
       <c r="E28">
-        <v>-0.04900815481692013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04902061989599605</v>
+      </c>
+      <c r="F28">
+        <v>-0.04661382730402644</v>
+      </c>
+      <c r="G28">
+        <v>0.05880913036178741</v>
+      </c>
+      <c r="H28">
+        <v>-0.01072651566990196</v>
+      </c>
+      <c r="I28">
+        <v>-0.004506590385099786</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0004428112163658347</v>
+        <v>-0.000913634877626393</v>
       </c>
       <c r="C29">
-        <v>0.01989110943493049</v>
+        <v>0.03809379525851497</v>
       </c>
       <c r="D29">
-        <v>-0.0795349949887299</v>
+        <v>0.1002859604006037</v>
       </c>
       <c r="E29">
-        <v>-0.03094074567588932</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05665807466347776</v>
+      </c>
+      <c r="F29">
+        <v>-0.03571585132434284</v>
+      </c>
+      <c r="G29">
+        <v>-0.04490294081644843</v>
+      </c>
+      <c r="H29">
+        <v>-0.1433464284040566</v>
+      </c>
+      <c r="I29">
+        <v>0.002364762312207817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02578040469755219</v>
+        <v>-0.01239304122097167</v>
       </c>
       <c r="C30">
-        <v>0.06313494261753991</v>
+        <v>0.0918017097746182</v>
       </c>
       <c r="D30">
-        <v>-0.1459219693136373</v>
+        <v>0.1374142483785662</v>
       </c>
       <c r="E30">
-        <v>-0.03635481230089536</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05403922657749559</v>
+      </c>
+      <c r="F30">
+        <v>-0.02254423139233203</v>
+      </c>
+      <c r="G30">
+        <v>0.007342099545053517</v>
+      </c>
+      <c r="H30">
+        <v>-0.05353277358842306</v>
+      </c>
+      <c r="I30">
+        <v>-0.04857481830472083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03653480196802301</v>
+        <v>-0.006706797382760205</v>
       </c>
       <c r="C31">
-        <v>0.08436963690970364</v>
+        <v>0.0946087476252776</v>
       </c>
       <c r="D31">
-        <v>-0.05694946566460337</v>
+        <v>0.03807283114747226</v>
       </c>
       <c r="E31">
-        <v>-0.01621031944099831</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02022271014953688</v>
+      </c>
+      <c r="F31">
+        <v>-0.01454759782996726</v>
+      </c>
+      <c r="G31">
+        <v>-0.009610029852247362</v>
+      </c>
+      <c r="H31">
+        <v>-0.04577618919269096</v>
+      </c>
+      <c r="I31">
+        <v>-0.01185870830953804</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01425468037846956</v>
+        <v>-0.009451229468680345</v>
       </c>
       <c r="C32">
-        <v>0.03596552343932158</v>
+        <v>0.04894299149994739</v>
       </c>
       <c r="D32">
-        <v>-0.07682272977544806</v>
+        <v>0.08905201053240394</v>
       </c>
       <c r="E32">
-        <v>-0.05434841492664489</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.00446513596323751</v>
+      </c>
+      <c r="F32">
+        <v>-0.05042905097035746</v>
+      </c>
+      <c r="G32">
+        <v>0.00841392236513719</v>
+      </c>
+      <c r="H32">
+        <v>-0.05363405127039925</v>
+      </c>
+      <c r="I32">
+        <v>0.02943473696652166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.007475204218774317</v>
+        <v>-0.004254529226916429</v>
       </c>
       <c r="C33">
-        <v>0.04117812427512209</v>
+        <v>0.060672177814466</v>
       </c>
       <c r="D33">
-        <v>-0.1189241082112654</v>
+        <v>0.1171211033755154</v>
       </c>
       <c r="E33">
-        <v>-0.04228677427045154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03115389682821368</v>
+      </c>
+      <c r="F33">
+        <v>-0.02434147023949969</v>
+      </c>
+      <c r="G33">
+        <v>-0.0181881264423483</v>
+      </c>
+      <c r="H33">
+        <v>-0.05622815095894299</v>
+      </c>
+      <c r="I33">
+        <v>-0.01021472073912327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02142056905006738</v>
+        <v>-0.007156180292604636</v>
       </c>
       <c r="C34">
-        <v>0.05900823218331672</v>
+        <v>0.06211673640839001</v>
       </c>
       <c r="D34">
-        <v>-0.05031873928821623</v>
+        <v>0.02606931139164562</v>
       </c>
       <c r="E34">
-        <v>0.0436041092361858</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02831036670402766</v>
+      </c>
+      <c r="F34">
+        <v>0.0421829510873725</v>
+      </c>
+      <c r="G34">
+        <v>-0.02749855683201099</v>
+      </c>
+      <c r="H34">
+        <v>-0.04284095807866584</v>
+      </c>
+      <c r="I34">
+        <v>-0.008268023164258202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.00262099182450207</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01181104504361708</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03402293972465861</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.004877033928014204</v>
+      </c>
+      <c r="F35">
+        <v>-0.01761686303981419</v>
+      </c>
+      <c r="G35">
+        <v>-0.01953734868792559</v>
+      </c>
+      <c r="H35">
+        <v>-0.05611958271869875</v>
+      </c>
+      <c r="I35">
+        <v>-0.009568996789716594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.006140701156531355</v>
+        <v>-0.01093649952324739</v>
       </c>
       <c r="C36">
-        <v>0.007061394106188474</v>
+        <v>0.02268918994135849</v>
       </c>
       <c r="D36">
-        <v>-0.07315621279455832</v>
+        <v>0.07290141669408655</v>
       </c>
       <c r="E36">
-        <v>-0.04997893495175885</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.03012493311064074</v>
+      </c>
+      <c r="F36">
+        <v>-0.04798904653223521</v>
+      </c>
+      <c r="G36">
+        <v>-0.01666776417687072</v>
+      </c>
+      <c r="H36">
+        <v>-0.06625315217378072</v>
+      </c>
+      <c r="I36">
+        <v>-0.008662194978363702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.00612932832755647</v>
+        <v>-0.01058150126135846</v>
       </c>
       <c r="C38">
-        <v>0.00677192897037592</v>
+        <v>0.0261898938395481</v>
       </c>
       <c r="D38">
-        <v>-0.07719709583410148</v>
+        <v>0.08446176533188213</v>
       </c>
       <c r="E38">
-        <v>-0.007572059080584932</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.006654505339831669</v>
+      </c>
+      <c r="F38">
+        <v>-0.003026497161852306</v>
+      </c>
+      <c r="G38">
+        <v>0.009323342270678591</v>
+      </c>
+      <c r="H38">
+        <v>-0.07522921905558395</v>
+      </c>
+      <c r="I38">
+        <v>-0.04099149693624893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01674746935016174</v>
+        <v>-0.003127221445147042</v>
       </c>
       <c r="C39">
-        <v>0.05944952862710595</v>
+        <v>0.07926640841601064</v>
       </c>
       <c r="D39">
-        <v>-0.1012522363937897</v>
+        <v>0.08770560373070835</v>
       </c>
       <c r="E39">
-        <v>0.005174601677526114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05163843916188827</v>
+      </c>
+      <c r="F39">
+        <v>0.01152957689535689</v>
+      </c>
+      <c r="G39">
+        <v>-0.04425044702956864</v>
+      </c>
+      <c r="H39">
+        <v>-0.08964606954403122</v>
+      </c>
+      <c r="I39">
+        <v>-0.02995886433278939</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01783236551838268</v>
+        <v>-0.0126695106467059</v>
       </c>
       <c r="C40">
-        <v>0.02264234758353323</v>
+        <v>0.03857700143206248</v>
       </c>
       <c r="D40">
-        <v>-0.1071220782373515</v>
+        <v>0.09223207544732837</v>
       </c>
       <c r="E40">
-        <v>0.004599893851277673</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04026805478616605</v>
+      </c>
+      <c r="F40">
+        <v>0.01619091282419943</v>
+      </c>
+      <c r="G40">
+        <v>0.03901747380466828</v>
+      </c>
+      <c r="H40">
+        <v>-0.1155027498083873</v>
+      </c>
+      <c r="I40">
+        <v>0.03252654887711148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01046254662669787</v>
+        <v>-0.01449266106572241</v>
       </c>
       <c r="C41">
-        <v>0.004019922170895899</v>
+        <v>0.01963936130869073</v>
       </c>
       <c r="D41">
-        <v>-0.03251596622092345</v>
+        <v>0.04171471604574598</v>
       </c>
       <c r="E41">
-        <v>-0.02427269171596361</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.006085120187581506</v>
+      </c>
+      <c r="F41">
+        <v>-0.02237128262274478</v>
+      </c>
+      <c r="G41">
+        <v>-0.008064310665072376</v>
+      </c>
+      <c r="H41">
+        <v>-0.04526545959038197</v>
+      </c>
+      <c r="I41">
+        <v>-0.01052328798109159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.001284217026425824</v>
+        <v>-0.00707193251942892</v>
       </c>
       <c r="C43">
-        <v>0.004059303420535813</v>
+        <v>0.01604877544951681</v>
       </c>
       <c r="D43">
-        <v>-0.04980347347047782</v>
+        <v>0.05101625715942906</v>
       </c>
       <c r="E43">
-        <v>-0.02004476260774413</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01116520972296628</v>
+      </c>
+      <c r="F43">
+        <v>-0.02018740735294609</v>
+      </c>
+      <c r="G43">
+        <v>-0.009809802244165441</v>
+      </c>
+      <c r="H43">
+        <v>-0.0555330090443439</v>
+      </c>
+      <c r="I43">
+        <v>-0.02805416524002717</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02060369644335422</v>
+        <v>-0.01142270980720324</v>
       </c>
       <c r="C44">
-        <v>0.02297880103389018</v>
+        <v>0.04870646568493734</v>
       </c>
       <c r="D44">
-        <v>-0.08591324491894689</v>
+        <v>0.1009816057915833</v>
       </c>
       <c r="E44">
-        <v>-0.0505819986655894</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03574564419840534</v>
+      </c>
+      <c r="F44">
+        <v>-0.03580347532766517</v>
+      </c>
+      <c r="G44">
+        <v>0.01608945024600488</v>
+      </c>
+      <c r="H44">
+        <v>-0.0666173458114348</v>
+      </c>
+      <c r="I44">
+        <v>-0.0199992790785173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.00780608024008504</v>
+        <v>0.001586798442344061</v>
       </c>
       <c r="C46">
-        <v>0.03008365270126617</v>
+        <v>0.04298197961646066</v>
       </c>
       <c r="D46">
-        <v>-0.07446836325714497</v>
+        <v>0.06954235801689972</v>
       </c>
       <c r="E46">
-        <v>-0.02080637099249233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04387502406282529</v>
+      </c>
+      <c r="F46">
+        <v>-0.02705136623940005</v>
+      </c>
+      <c r="G46">
+        <v>-0.02531398520930052</v>
+      </c>
+      <c r="H46">
+        <v>-0.12975542841551</v>
+      </c>
+      <c r="I46">
+        <v>-0.02867285533479606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.0785023558765707</v>
+        <v>-0.03005173983025906</v>
       </c>
       <c r="C47">
-        <v>0.1070474511080904</v>
+        <v>0.1292679138413984</v>
       </c>
       <c r="D47">
-        <v>-0.04823465844295281</v>
+        <v>0.02169801290106861</v>
       </c>
       <c r="E47">
-        <v>-0.01673217597839014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.00886749913717722</v>
+      </c>
+      <c r="F47">
+        <v>0.006595704789131297</v>
+      </c>
+      <c r="G47">
+        <v>-0.05277495229557019</v>
+      </c>
+      <c r="H47">
+        <v>-0.03799500902202765</v>
+      </c>
+      <c r="I47">
+        <v>-0.02290808805904074</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.009385834517065131</v>
+        <v>-0.01423233766949607</v>
       </c>
       <c r="C48">
-        <v>0.01686393374963825</v>
+        <v>0.03408666249675324</v>
       </c>
       <c r="D48">
-        <v>-0.06834099038630934</v>
+        <v>0.07569210809873232</v>
       </c>
       <c r="E48">
-        <v>-0.05145225645851531</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02172377392914085</v>
+      </c>
+      <c r="F48">
+        <v>-0.05386331982243845</v>
+      </c>
+      <c r="G48">
+        <v>-0.02521834639265777</v>
+      </c>
+      <c r="H48">
+        <v>-0.1091553272073931</v>
+      </c>
+      <c r="I48">
+        <v>-0.02420983590827953</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03278200662544256</v>
+        <v>-0.01071282984226584</v>
       </c>
       <c r="C50">
-        <v>0.05831255198818219</v>
+        <v>0.07590627725453776</v>
       </c>
       <c r="D50">
-        <v>-0.05492052798174223</v>
+        <v>0.04693510523652714</v>
       </c>
       <c r="E50">
-        <v>-0.008018036621142016</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01588784423456719</v>
+      </c>
+      <c r="F50">
+        <v>-0.00704338908531205</v>
+      </c>
+      <c r="G50">
+        <v>0.002004623492286119</v>
+      </c>
+      <c r="H50">
+        <v>-0.03031843179056056</v>
+      </c>
+      <c r="I50">
+        <v>-0.02062634126372244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001060101824329311</v>
+        <v>0.001202685065331368</v>
       </c>
       <c r="C51">
-        <v>0.005046115352973455</v>
+        <v>0.01697601651432435</v>
       </c>
       <c r="D51">
-        <v>-0.05491039031845534</v>
+        <v>0.05588967855083601</v>
       </c>
       <c r="E51">
-        <v>-0.0193042727282864</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.0384710624452501</v>
+      </c>
+      <c r="F51">
+        <v>-0.03797817923451216</v>
+      </c>
+      <c r="G51">
+        <v>0.005544086924068986</v>
+      </c>
+      <c r="H51">
+        <v>-0.06384751812869427</v>
+      </c>
+      <c r="I51">
+        <v>0.01226386243007057</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1074320496812283</v>
+        <v>-0.0501759378135074</v>
       </c>
       <c r="C53">
-        <v>0.1248863668954664</v>
+        <v>0.157621741833414</v>
       </c>
       <c r="D53">
-        <v>0.0001112274085437745</v>
+        <v>-0.02366878266293714</v>
       </c>
       <c r="E53">
-        <v>-0.04838605217803398</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02322792229025868</v>
+      </c>
+      <c r="F53">
+        <v>-0.04777611757144096</v>
+      </c>
+      <c r="G53">
+        <v>-0.003912497434842481</v>
+      </c>
+      <c r="H53">
+        <v>-0.008542847605419615</v>
+      </c>
+      <c r="I53">
+        <v>-0.01722345201184781</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01052101569824051</v>
+        <v>-0.009405673910432261</v>
       </c>
       <c r="C54">
-        <v>0.02128696273948207</v>
+        <v>0.03861270808828749</v>
       </c>
       <c r="D54">
-        <v>-0.08477378903420137</v>
+        <v>0.0769222647754278</v>
       </c>
       <c r="E54">
-        <v>-0.0102490195793588</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.02110827799472548</v>
+      </c>
+      <c r="F54">
+        <v>-0.002396046506510221</v>
+      </c>
+      <c r="G54">
+        <v>-0.003609070886989687</v>
+      </c>
+      <c r="H54">
+        <v>-0.08309216020062284</v>
+      </c>
+      <c r="I54">
+        <v>-0.03672141725500745</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09393945166690264</v>
+        <v>-0.0392805593982422</v>
       </c>
       <c r="C55">
-        <v>0.1062212904392777</v>
+        <v>0.1316138594794146</v>
       </c>
       <c r="D55">
-        <v>-0.005212150693972946</v>
+        <v>-0.03299615699116196</v>
       </c>
       <c r="E55">
-        <v>-0.004884760290165581</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.007594242403269587</v>
+      </c>
+      <c r="F55">
+        <v>-0.0101220518338653</v>
+      </c>
+      <c r="G55">
+        <v>0.0007104563045768482</v>
+      </c>
+      <c r="H55">
+        <v>-0.01013587410098811</v>
+      </c>
+      <c r="I55">
+        <v>0.008879295650692193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1348066601574434</v>
+        <v>-0.05335774660818756</v>
       </c>
       <c r="C56">
-        <v>0.1450745366650948</v>
+        <v>0.1921137681654436</v>
       </c>
       <c r="D56">
-        <v>-0.007055918872500799</v>
+        <v>-0.03246835879460638</v>
       </c>
       <c r="E56">
-        <v>0.001307643651432792</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.02672922802959513</v>
+      </c>
+      <c r="F56">
+        <v>-0.01483339023050045</v>
+      </c>
+      <c r="G56">
+        <v>0.04479255701723031</v>
+      </c>
+      <c r="H56">
+        <v>-0.02696242810521053</v>
+      </c>
+      <c r="I56">
+        <v>0.009766415177013888</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.01002901943126485</v>
+        <v>-0.001689156399808726</v>
       </c>
       <c r="C58">
-        <v>0.009345618284305671</v>
+        <v>0.0550446808837496</v>
       </c>
       <c r="D58">
-        <v>-0.216146564889063</v>
+        <v>0.2893192211354002</v>
       </c>
       <c r="E58">
-        <v>-0.1148480023056025</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02403424969702431</v>
+      </c>
+      <c r="F58">
+        <v>-0.1225155369305235</v>
+      </c>
+      <c r="G58">
+        <v>0.1645232928396078</v>
+      </c>
+      <c r="H58">
+        <v>0.03006957383757241</v>
+      </c>
+      <c r="I58">
+        <v>-0.03580007815723439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1810965955310551</v>
+        <v>-0.2541684107762914</v>
       </c>
       <c r="C59">
-        <v>-0.1453159077222428</v>
+        <v>-0.0564020460539203</v>
       </c>
       <c r="D59">
-        <v>-0.04066610750855063</v>
+        <v>0.05306266329226796</v>
       </c>
       <c r="E59">
-        <v>-0.03114986544733335</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02459347924895623</v>
+      </c>
+      <c r="F59">
+        <v>-0.02633642189832755</v>
+      </c>
+      <c r="G59">
+        <v>0.01173228557658296</v>
+      </c>
+      <c r="H59">
+        <v>-0.00864478173591946</v>
+      </c>
+      <c r="I59">
+        <v>0.03563568521606089</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1831344761288228</v>
+        <v>-0.147486812235455</v>
       </c>
       <c r="C60">
-        <v>0.1029751812885979</v>
+        <v>0.1760840996865194</v>
       </c>
       <c r="D60">
-        <v>-0.2346979195196079</v>
+        <v>0.09996108766188684</v>
       </c>
       <c r="E60">
-        <v>0.07338688516839094</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.148790082815855</v>
+      </c>
+      <c r="F60">
+        <v>0.2129075054515189</v>
+      </c>
+      <c r="G60">
+        <v>-0.1824799208641291</v>
+      </c>
+      <c r="H60">
+        <v>0.2928931063773602</v>
+      </c>
+      <c r="I60">
+        <v>0.1174643449039724</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02530142182518352</v>
+        <v>-0.01008942419443384</v>
       </c>
       <c r="C61">
-        <v>0.05346163614290687</v>
+        <v>0.07517812872310912</v>
       </c>
       <c r="D61">
-        <v>-0.08282550599906781</v>
+        <v>0.07150320731125687</v>
       </c>
       <c r="E61">
-        <v>0.003929160161674263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03792656970914705</v>
+      </c>
+      <c r="F61">
+        <v>0.01714423070381521</v>
+      </c>
+      <c r="G61">
+        <v>-0.05387471806312796</v>
+      </c>
+      <c r="H61">
+        <v>-0.07332337361277505</v>
+      </c>
+      <c r="I61">
+        <v>-0.01987243536270321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.007356133752580299</v>
+        <v>-0.007958946753277773</v>
       </c>
       <c r="C63">
-        <v>0.02363110834183818</v>
+        <v>0.03746779874216523</v>
       </c>
       <c r="D63">
-        <v>-0.09056787260129442</v>
+        <v>0.06765012988113223</v>
       </c>
       <c r="E63">
-        <v>-0.02930894854347773</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05812850696990952</v>
+      </c>
+      <c r="F63">
+        <v>-0.0240322290219303</v>
+      </c>
+      <c r="G63">
+        <v>-0.0229917751193044</v>
+      </c>
+      <c r="H63">
+        <v>-0.07169418785497643</v>
+      </c>
+      <c r="I63">
+        <v>-0.02184388594484835</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.0581324326488117</v>
+        <v>-0.01540412077092635</v>
       </c>
       <c r="C64">
-        <v>0.0877424348633334</v>
+        <v>0.1065753928661523</v>
       </c>
       <c r="D64">
-        <v>-0.006831438803824947</v>
+        <v>0.004920393038677328</v>
       </c>
       <c r="E64">
-        <v>-0.01291248668835552</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02280368624596679</v>
+      </c>
+      <c r="F64">
+        <v>-0.009113780407916454</v>
+      </c>
+      <c r="G64">
+        <v>-0.05405013855882233</v>
+      </c>
+      <c r="H64">
+        <v>-0.0521335983478648</v>
+      </c>
+      <c r="I64">
+        <v>-0.04890710900307445</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02635796896783034</v>
+        <v>-0.02070828607439313</v>
       </c>
       <c r="C65">
-        <v>0.01524600595190902</v>
+        <v>0.04426575338100665</v>
       </c>
       <c r="D65">
-        <v>-0.1065812809594405</v>
+        <v>0.1144466936283863</v>
       </c>
       <c r="E65">
-        <v>-0.0215519562143264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04671271303784968</v>
+      </c>
+      <c r="F65">
+        <v>0.008258500315654799</v>
+      </c>
+      <c r="G65">
+        <v>-0.03648619338410142</v>
+      </c>
+      <c r="H65">
+        <v>-0.001883497012981604</v>
+      </c>
+      <c r="I65">
+        <v>-0.03955690206067067</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.0222532625503622</v>
+        <v>0.0003534283243070671</v>
       </c>
       <c r="C66">
-        <v>0.06877663234686897</v>
+        <v>0.09777034227016004</v>
       </c>
       <c r="D66">
-        <v>-0.1199478946481837</v>
+        <v>0.1176395669062656</v>
       </c>
       <c r="E66">
-        <v>0.003963331422111782</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04331560197651053</v>
+      </c>
+      <c r="F66">
+        <v>0.01122462561889909</v>
+      </c>
+      <c r="G66">
+        <v>-0.009327448474413524</v>
+      </c>
+      <c r="H66">
+        <v>-0.06691175102958742</v>
+      </c>
+      <c r="I66">
+        <v>-0.02537489517244019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02384514306002547</v>
+        <v>-0.02023981736505258</v>
       </c>
       <c r="C67">
-        <v>0.02022584797413897</v>
+        <v>0.0375337094993454</v>
       </c>
       <c r="D67">
-        <v>-0.03994586991863938</v>
+        <v>0.04023039979684878</v>
       </c>
       <c r="E67">
-        <v>0.02306265454404362</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01239268046489574</v>
+      </c>
+      <c r="F67">
+        <v>0.02815710956713895</v>
+      </c>
+      <c r="G67">
+        <v>-0.006754475049160532</v>
+      </c>
+      <c r="H67">
+        <v>-0.06520101250434478</v>
+      </c>
+      <c r="I67">
+        <v>-0.03398311429390937</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2031565271089171</v>
+        <v>-0.2775750914240029</v>
       </c>
       <c r="C68">
-        <v>-0.155494500759356</v>
+        <v>-0.06322594574780617</v>
       </c>
       <c r="D68">
-        <v>-0.03146631417635672</v>
+        <v>0.03067768934727915</v>
       </c>
       <c r="E68">
-        <v>-0.02178679301814493</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.001505938977496021</v>
+      </c>
+      <c r="F68">
+        <v>-0.0280792489303972</v>
+      </c>
+      <c r="G68">
+        <v>0.0801169070229398</v>
+      </c>
+      <c r="H68">
+        <v>0.03652117084208444</v>
+      </c>
+      <c r="I68">
+        <v>0.01277220036598091</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05373394966588534</v>
+        <v>-0.01453531244524114</v>
       </c>
       <c r="C69">
-        <v>0.1161829775558543</v>
+        <v>0.118275749673273</v>
       </c>
       <c r="D69">
-        <v>-0.07320126389841455</v>
+        <v>0.02928925195396376</v>
       </c>
       <c r="E69">
-        <v>-0.0136813429802958</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.009590177013416688</v>
+      </c>
+      <c r="F69">
+        <v>0.008987026077040923</v>
+      </c>
+      <c r="G69">
+        <v>-0.03359945720267801</v>
+      </c>
+      <c r="H69">
+        <v>-0.03531423968457015</v>
+      </c>
+      <c r="I69">
+        <v>-0.00689812694864498</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.213098156666372</v>
+        <v>-0.277032674819881</v>
       </c>
       <c r="C71">
-        <v>-0.1795763526532375</v>
+        <v>-0.07632810760654311</v>
       </c>
       <c r="D71">
-        <v>-0.01670290876201614</v>
+        <v>0.01560536683914967</v>
       </c>
       <c r="E71">
-        <v>-0.009908967217562892</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0009045128685150412</v>
+      </c>
+      <c r="F71">
+        <v>-0.01540594131973448</v>
+      </c>
+      <c r="G71">
+        <v>0.0311547950253341</v>
+      </c>
+      <c r="H71">
+        <v>-0.01352265928542382</v>
+      </c>
+      <c r="I71">
+        <v>-0.006773854343882292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1029817881053601</v>
+        <v>-0.05379844642614309</v>
       </c>
       <c r="C72">
-        <v>0.07662213519619612</v>
+        <v>0.1287091290310035</v>
       </c>
       <c r="D72">
-        <v>-0.1162936477257194</v>
+        <v>0.06182278745890182</v>
       </c>
       <c r="E72">
-        <v>0.01279139335183023</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.0715296639863008</v>
+      </c>
+      <c r="F72">
+        <v>0.02907879074838265</v>
+      </c>
+      <c r="G72">
+        <v>-0.05720326614286084</v>
+      </c>
+      <c r="H72">
+        <v>-0.03366150027303809</v>
+      </c>
+      <c r="I72">
+        <v>-0.02680986369981959</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1722528543852143</v>
+        <v>-0.1370249592101253</v>
       </c>
       <c r="C73">
-        <v>0.07018685434625652</v>
+        <v>0.1533426999474226</v>
       </c>
       <c r="D73">
-        <v>-0.2852620184500983</v>
+        <v>0.1053460551104922</v>
       </c>
       <c r="E73">
-        <v>0.1245140843663794</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.266114571247634</v>
+      </c>
+      <c r="F73">
+        <v>0.3005474919862812</v>
+      </c>
+      <c r="G73">
+        <v>-0.3480825430411756</v>
+      </c>
+      <c r="H73">
+        <v>0.2760208908366779</v>
+      </c>
+      <c r="I73">
+        <v>0.03811749342862025</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1066355286655299</v>
+        <v>-0.04870796565847625</v>
       </c>
       <c r="C74">
-        <v>0.1143077671596623</v>
+        <v>0.144079714733675</v>
       </c>
       <c r="D74">
-        <v>0.02405575872638303</v>
+        <v>-0.04311772149335501</v>
       </c>
       <c r="E74">
-        <v>-0.03542914014568933</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.008946693658112154</v>
+      </c>
+      <c r="F74">
+        <v>-0.03493230059931533</v>
+      </c>
+      <c r="G74">
+        <v>-0.001399414978011606</v>
+      </c>
+      <c r="H74">
+        <v>0.02035293362610959</v>
+      </c>
+      <c r="I74">
+        <v>0.007579291659270028</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.232348547362544</v>
+        <v>-0.09852278789038765</v>
       </c>
       <c r="C75">
-        <v>0.1975264716927891</v>
+        <v>0.2703541201624831</v>
       </c>
       <c r="D75">
-        <v>0.09621947111799252</v>
+        <v>-0.1314035467897043</v>
       </c>
       <c r="E75">
-        <v>0.06041710707931053</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09256084043755081</v>
+      </c>
+      <c r="F75">
+        <v>0.02890960423007184</v>
+      </c>
+      <c r="G75">
+        <v>0.0974667563101394</v>
+      </c>
+      <c r="H75">
+        <v>-0.05292290243704727</v>
+      </c>
+      <c r="I75">
+        <v>-0.05611394232254175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1378302473209742</v>
+        <v>-0.05589898528949575</v>
       </c>
       <c r="C76">
-        <v>0.1378648723380668</v>
+        <v>0.1812500583698034</v>
       </c>
       <c r="D76">
-        <v>-0.0007655947350072949</v>
+        <v>-0.04664793541303144</v>
       </c>
       <c r="E76">
-        <v>0.007046835126520587</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.01854603283701723</v>
+      </c>
+      <c r="F76">
+        <v>-0.002052093680321749</v>
+      </c>
+      <c r="G76">
+        <v>0.03098992704930309</v>
+      </c>
+      <c r="H76">
+        <v>-0.04635107947393111</v>
+      </c>
+      <c r="I76">
+        <v>-0.007731207886679773</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02130793517908277</v>
+        <v>0.001548982678755467</v>
       </c>
       <c r="C77">
-        <v>0.06779486263313479</v>
+        <v>0.1061790728500967</v>
       </c>
       <c r="D77">
-        <v>0.01671379193675199</v>
+        <v>0.3167449374693593</v>
       </c>
       <c r="E77">
-        <v>-0.03914242369266799</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8562584879897237</v>
+      </c>
+      <c r="F77">
+        <v>0.1872615669159922</v>
+      </c>
+      <c r="G77">
+        <v>-0.1441532660823211</v>
+      </c>
+      <c r="H77">
+        <v>0.1847698591536072</v>
+      </c>
+      <c r="I77">
+        <v>-0.01886744868121863</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.03020535113809426</v>
+        <v>-0.01510841211050911</v>
       </c>
       <c r="C78">
-        <v>0.07050015486192789</v>
+        <v>0.09195870213301699</v>
       </c>
       <c r="D78">
-        <v>-0.1429980634518382</v>
+        <v>0.111943876545764</v>
       </c>
       <c r="E78">
-        <v>-0.0565223619825114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06530844449177849</v>
+      </c>
+      <c r="F78">
+        <v>-0.04307646901038378</v>
+      </c>
+      <c r="G78">
+        <v>0.02517426591464905</v>
+      </c>
+      <c r="H78">
+        <v>-0.05629876948645298</v>
+      </c>
+      <c r="I78">
+        <v>0.04316641735162164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09984069191558112</v>
+        <v>-0.03388117244071989</v>
       </c>
       <c r="C79">
-        <v>0.1842752226798773</v>
+        <v>0.1968585409477535</v>
       </c>
       <c r="D79">
-        <v>0.2363553692634222</v>
+        <v>-0.08980271087808064</v>
       </c>
       <c r="E79">
-        <v>-0.8639683603999952</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05231944820267365</v>
+      </c>
+      <c r="F79">
+        <v>-0.7975289813969544</v>
+      </c>
+      <c r="G79">
+        <v>-0.2946333576294383</v>
+      </c>
+      <c r="H79">
+        <v>0.3577624136044888</v>
+      </c>
+      <c r="I79">
+        <v>-0.0197356914600168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.003842776166305216</v>
+        <v>-0.004164393936005064</v>
       </c>
       <c r="C80">
-        <v>0.04445044584495268</v>
+        <v>0.04407842976059278</v>
       </c>
       <c r="D80">
-        <v>-0.05012483935233331</v>
+        <v>0.03991399218938697</v>
       </c>
       <c r="E80">
-        <v>-0.0007865809659830183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04469026012587854</v>
+      </c>
+      <c r="F80">
+        <v>9.355600071530818e-05</v>
+      </c>
+      <c r="G80">
+        <v>-0.01334084247285828</v>
+      </c>
+      <c r="H80">
+        <v>-0.02739308287848027</v>
+      </c>
+      <c r="I80">
+        <v>0.08682273696355157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1181006109875026</v>
+        <v>-0.0390866347201079</v>
       </c>
       <c r="C81">
-        <v>0.1353006722729717</v>
+        <v>0.1664878636673751</v>
       </c>
       <c r="D81">
-        <v>0.08258697960677984</v>
+        <v>-0.08575032803514851</v>
       </c>
       <c r="E81">
-        <v>-0.02331891281838062</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04381436824748193</v>
+      </c>
+      <c r="F81">
+        <v>-0.05803656189597903</v>
+      </c>
+      <c r="G81">
+        <v>0.03577446255364451</v>
+      </c>
+      <c r="H81">
+        <v>-0.08250014107670178</v>
+      </c>
+      <c r="I81">
+        <v>0.007553459918186169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2499057165231001</v>
+        <v>-0.08468740827275635</v>
       </c>
       <c r="C82">
-        <v>0.2921564158395581</v>
+        <v>0.3180601500870313</v>
       </c>
       <c r="D82">
-        <v>0.1878543291723766</v>
+        <v>-0.2421694462949261</v>
       </c>
       <c r="E82">
-        <v>0.1972721219233897</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06175192866855963</v>
+      </c>
+      <c r="F82">
+        <v>0.1166696621229324</v>
+      </c>
+      <c r="G82">
+        <v>0.07591422188983753</v>
+      </c>
+      <c r="H82">
+        <v>-0.1320792770773475</v>
+      </c>
+      <c r="I82">
+        <v>0.01141380040370796</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.01092306946485515</v>
+        <v>0.01583485713494457</v>
       </c>
       <c r="C83">
-        <v>0.05349623265502301</v>
+        <v>0.01806681676263841</v>
       </c>
       <c r="D83">
-        <v>-0.006317613627912895</v>
+        <v>0.01342379935168329</v>
       </c>
       <c r="E83">
-        <v>-0.03270499203415288</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.08510087181978405</v>
+      </c>
+      <c r="F83">
+        <v>-0.0667691963076002</v>
+      </c>
+      <c r="G83">
+        <v>-0.01452665860139227</v>
+      </c>
+      <c r="H83">
+        <v>-0.1330954509739423</v>
+      </c>
+      <c r="I83">
+        <v>0.9257120284010925</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0001464693112076677</v>
+        <v>0.003453654083325794</v>
       </c>
       <c r="C84">
-        <v>-0.00134763690113581</v>
+        <v>0.01761368375360323</v>
       </c>
       <c r="D84">
-        <v>-0.001176358612747659</v>
+        <v>0.04335363816760734</v>
       </c>
       <c r="E84">
-        <v>0.002234748979458843</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.002045190741912257</v>
+      </c>
+      <c r="F84">
+        <v>-0.03196127531303376</v>
+      </c>
+      <c r="G84">
+        <v>0.03987028365998336</v>
+      </c>
+      <c r="H84">
+        <v>-0.05129592338252972</v>
+      </c>
+      <c r="I84">
+        <v>-0.05502327340407068</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1400878880487062</v>
+        <v>-0.05375017294899909</v>
       </c>
       <c r="C85">
-        <v>0.1407152104042182</v>
+        <v>0.1838391205629155</v>
       </c>
       <c r="D85">
-        <v>0.05621232640731203</v>
+        <v>-0.09935519187184524</v>
       </c>
       <c r="E85">
-        <v>-0.03578841981712184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.001109622672651436</v>
+      </c>
+      <c r="F85">
+        <v>-0.06897208475898783</v>
+      </c>
+      <c r="G85">
+        <v>0.0216007701458611</v>
+      </c>
+      <c r="H85">
+        <v>0.004043304807090784</v>
+      </c>
+      <c r="I85">
+        <v>-0.004861544046483026</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01683711175481794</v>
+        <v>-0.01157372904506731</v>
       </c>
       <c r="C86">
-        <v>0.009135738715705067</v>
+        <v>0.03562814169813137</v>
       </c>
       <c r="D86">
-        <v>-0.09427348695378127</v>
+        <v>0.109566469733283</v>
       </c>
       <c r="E86">
-        <v>-0.03128302763785593</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01428240404638731</v>
+      </c>
+      <c r="F86">
+        <v>-0.006621663977623177</v>
+      </c>
+      <c r="G86">
+        <v>-0.01951750298932292</v>
+      </c>
+      <c r="H86">
+        <v>-0.03437200950694168</v>
+      </c>
+      <c r="I86">
+        <v>-0.01949559836568339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.0211551247512287</v>
+        <v>-0.01025760772025161</v>
       </c>
       <c r="C87">
-        <v>0.02636611370083296</v>
+        <v>0.06045656721156417</v>
       </c>
       <c r="D87">
-        <v>-0.1252091612552918</v>
+        <v>0.1384451700301919</v>
       </c>
       <c r="E87">
-        <v>-0.05561696992670512</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01249702324926834</v>
+      </c>
+      <c r="F87">
+        <v>-0.0414783508340754</v>
+      </c>
+      <c r="G87">
+        <v>0.035339477127277</v>
+      </c>
+      <c r="H87">
+        <v>-0.0801666979801338</v>
+      </c>
+      <c r="I87">
+        <v>0.0215221167320737</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05003618170801474</v>
+        <v>-0.03017686017605136</v>
       </c>
       <c r="C88">
-        <v>0.0444116819871238</v>
+        <v>0.06820775691015353</v>
       </c>
       <c r="D88">
-        <v>-0.01646508444598132</v>
+        <v>0.01471111388880631</v>
       </c>
       <c r="E88">
-        <v>-0.02937458329707068</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02975646531168513</v>
+      </c>
+      <c r="F88">
+        <v>-0.0191537014301248</v>
+      </c>
+      <c r="G88">
+        <v>-0.01581379039145797</v>
+      </c>
+      <c r="H88">
+        <v>-0.002780387569695014</v>
+      </c>
+      <c r="I88">
+        <v>-0.02771796494459395</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3197721742989402</v>
+        <v>-0.4107153923380221</v>
       </c>
       <c r="C89">
-        <v>-0.3252547487538112</v>
+        <v>-0.1468084267473857</v>
       </c>
       <c r="D89">
-        <v>-0.007118619898099812</v>
+        <v>0.03765443891849642</v>
       </c>
       <c r="E89">
-        <v>-0.08566115404045237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05163856891974056</v>
+      </c>
+      <c r="F89">
+        <v>-0.06192375726990767</v>
+      </c>
+      <c r="G89">
+        <v>-0.02065221305490062</v>
+      </c>
+      <c r="H89">
+        <v>-0.1292693218932247</v>
+      </c>
+      <c r="I89">
+        <v>0.08082842466249653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2550056303638584</v>
+        <v>-0.3217985223875373</v>
       </c>
       <c r="C90">
-        <v>-0.2396000555817597</v>
+        <v>-0.09975678472956172</v>
       </c>
       <c r="D90">
-        <v>-0.05196591545637695</v>
+        <v>0.03611102131888023</v>
       </c>
       <c r="E90">
-        <v>0.007753572137271769</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.007663059987133576</v>
+      </c>
+      <c r="F90">
+        <v>0.004689224670072</v>
+      </c>
+      <c r="G90">
+        <v>0.06326091730593865</v>
+      </c>
+      <c r="H90">
+        <v>-0.01847479396349804</v>
+      </c>
+      <c r="I90">
+        <v>0.03173272627169958</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.154518964094515</v>
+        <v>-0.0635344321344422</v>
       </c>
       <c r="C91">
-        <v>0.1848139771058872</v>
+        <v>0.2068916098945574</v>
       </c>
       <c r="D91">
-        <v>0.1031533118136478</v>
+        <v>-0.1109253342158663</v>
       </c>
       <c r="E91">
-        <v>-0.05941522356394863</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05838593982269738</v>
+      </c>
+      <c r="F91">
+        <v>-0.06520319616673399</v>
+      </c>
+      <c r="G91">
+        <v>0.00942268760449155</v>
+      </c>
+      <c r="H91">
+        <v>0.008425038626844324</v>
+      </c>
+      <c r="I91">
+        <v>0.02467265874387909</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2413072839810125</v>
+        <v>-0.3405381904857523</v>
       </c>
       <c r="C92">
-        <v>-0.2628167117675381</v>
+        <v>-0.1348872495483029</v>
       </c>
       <c r="D92">
-        <v>0.06606884620224752</v>
+        <v>0.002352412145230857</v>
       </c>
       <c r="E92">
-        <v>-0.01713199000838677</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06319658372250274</v>
+      </c>
+      <c r="F92">
+        <v>-0.03260405166733969</v>
+      </c>
+      <c r="G92">
+        <v>0.03319979361900077</v>
+      </c>
+      <c r="H92">
+        <v>-0.02865223564404873</v>
+      </c>
+      <c r="I92">
+        <v>-0.1367218469793252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2828396661512195</v>
+        <v>-0.3360977135011348</v>
       </c>
       <c r="C93">
-        <v>-0.2493450605025398</v>
+        <v>-0.107145742880755</v>
       </c>
       <c r="D93">
-        <v>-0.005080168549175312</v>
+        <v>-0.01987209300874673</v>
       </c>
       <c r="E93">
-        <v>-0.0110515086179087</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.0262059612181921</v>
+      </c>
+      <c r="F93">
+        <v>-0.005623886089142761</v>
+      </c>
+      <c r="G93">
+        <v>-0.004565996788647123</v>
+      </c>
+      <c r="H93">
+        <v>0.02105437383572537</v>
+      </c>
+      <c r="I93">
+        <v>-0.03277492950091625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2912218384046247</v>
+        <v>-0.120133514676483</v>
       </c>
       <c r="C94">
-        <v>0.2712319799901763</v>
+        <v>0.3487177190983424</v>
       </c>
       <c r="D94">
-        <v>0.2855947072804352</v>
+        <v>-0.3575914044247218</v>
       </c>
       <c r="E94">
-        <v>0.2543148463652393</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.05322959013269885</v>
+      </c>
+      <c r="F94">
+        <v>0.1148364038017443</v>
+      </c>
+      <c r="G94">
+        <v>0.3268487319383171</v>
+      </c>
+      <c r="H94">
+        <v>-0.02731194336548147</v>
+      </c>
+      <c r="I94">
+        <v>-0.007593771350435286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.0147355813284089</v>
+        <v>-0.01406156229916349</v>
       </c>
       <c r="C95">
-        <v>0.03962002549366032</v>
+        <v>0.06508785650051316</v>
       </c>
       <c r="D95">
-        <v>0.03111605797135695</v>
+        <v>0.09143264103189169</v>
       </c>
       <c r="E95">
-        <v>0.0008930190953617831</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.160145402091301</v>
+      </c>
+      <c r="F95">
+        <v>0.03547629170029863</v>
+      </c>
+      <c r="G95">
+        <v>-0.1656437820003311</v>
+      </c>
+      <c r="H95">
+        <v>-0.3085463347599146</v>
+      </c>
+      <c r="I95">
+        <v>-0.1525497424824297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.001659162582008595</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0009117410723291641</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0008519756964940062</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003837096206803979</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003478314515725901</v>
+      </c>
+      <c r="G97">
+        <v>0.0003022860464985999</v>
+      </c>
+      <c r="H97">
+        <v>-0.003657425971824868</v>
+      </c>
+      <c r="I97">
+        <v>-0.005876858021350164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1497180115851506</v>
+        <v>-0.1199112712435546</v>
       </c>
       <c r="C98">
-        <v>0.08651610175858392</v>
+        <v>0.1555603979693554</v>
       </c>
       <c r="D98">
-        <v>-0.186635660599082</v>
+        <v>0.07318789632835318</v>
       </c>
       <c r="E98">
-        <v>0.1074138391437112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1782161943783138</v>
+      </c>
+      <c r="F98">
+        <v>0.2328085701939365</v>
+      </c>
+      <c r="G98">
+        <v>-0.2411907287588539</v>
+      </c>
+      <c r="H98">
+        <v>0.2379417803953762</v>
+      </c>
+      <c r="I98">
+        <v>0.07443227790185285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001167134008948142</v>
+        <v>-0.001392939828833754</v>
       </c>
       <c r="C101">
-        <v>0.01913226771272689</v>
+        <v>0.03734479616617808</v>
       </c>
       <c r="D101">
-        <v>-0.07906847807146283</v>
+        <v>0.09948089156505785</v>
       </c>
       <c r="E101">
-        <v>-0.03171491471356329</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05598406525216993</v>
+      </c>
+      <c r="F101">
+        <v>-0.03590993582150007</v>
+      </c>
+      <c r="G101">
+        <v>-0.04413277364932951</v>
+      </c>
+      <c r="H101">
+        <v>-0.1439279548867721</v>
+      </c>
+      <c r="I101">
+        <v>0.002375552352334723</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1056552221758914</v>
+        <v>-0.0266495236381636</v>
       </c>
       <c r="C102">
-        <v>0.1571262708636678</v>
+        <v>0.1478409492260661</v>
       </c>
       <c r="D102">
-        <v>0.05571434158274027</v>
+        <v>-0.09937164422098491</v>
       </c>
       <c r="E102">
-        <v>0.08082275476862696</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03749913813104302</v>
+      </c>
+      <c r="F102">
+        <v>0.06847590027672905</v>
+      </c>
+      <c r="G102">
+        <v>-0.01096526074948152</v>
+      </c>
+      <c r="H102">
+        <v>-0.03792463971028222</v>
+      </c>
+      <c r="I102">
+        <v>0.01981843598034071</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
